--- a/数据整理/stocks/A股/科创板/688580-伟思医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688580-伟思医疗.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000972</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华万银多元策略灵活配置混合</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8325</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>001915</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>宝盈医疗健康沪港深股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5583</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001915</t>
+          <t>000972</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈医疗健康沪港深股票</t>
+          <t>新华万银多元策略灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006157</t>
+          <t>009223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通量化核心优选混合</t>
+          <t>宝盈现代服务业混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4728</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001543</t>
+          <t>001915</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合A</t>
+          <t>宝盈医疗健康沪港深股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -678,25 +748,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007578</t>
+          <t>001543</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合C</t>
+          <t>宝盈新锐灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.41</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>8.48</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3222</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001915</t>
+          <t>009224</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈医疗健康沪港深股票</t>
+          <t>宝盈现代服务业混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009223</t>
+          <t>007578</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈现代服务业混合A</t>
+          <t>宝盈新锐灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -762,26 +862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009224</t>
+          <t>006157</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>宝盈现代服务业混合C</t>
+          <t>财通量化核心优选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688580-伟思医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688580-伟思医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0871</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8724</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3772</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688580-伟思医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688580-伟思医疗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1486,4 +1487,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9559</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5377</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4468</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3160</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2568</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688580-伟思医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688580-伟思医疗.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1885,4 +1886,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688580-伟思医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688580-伟思医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,17 +1906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1925,14 +1946,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.78</v>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1941,14 +1984,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.08</v>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9727</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1957,14 +2022,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.23</v>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1973,13 +2060,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688580-伟思医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688580-伟思医疗.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3.3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.78</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>5.08</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>1.23</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -566,6 +583,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -887,7 +1072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1285,7 +1470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1873,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2157,7 +2342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688580-伟思医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688580-伟思医疗.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.78</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>5.08</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>1.23</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>59.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -750,7 +899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1072,7 +1221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1470,7 +1619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2058,7 +2207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2342,7 +2491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
